--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439542.8206532585</v>
+        <v>337290.5109663219</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514372</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955723</v>
+        <v>5668630.558955722</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>154.8359655669563</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,73 +898,73 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>116.325098768111</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1150,58 +1150,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,49 +1387,49 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>188.2184153478179</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>201.6815635152748</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>81.00537765493296</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>35.00246782997241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="19">
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>57.81343218737562</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2326,67 +2326,67 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>89.20720739599011</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,76 +2554,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2645,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>12.46721461441949</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>62.30512642017684</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2930,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>12.41656858543521</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>74.95904355882617</v>
+        <v>162.5320513878378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3280,52 +3280,52 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3359,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>122.5750048632587</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3444,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,14 +3502,14 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
@@ -3523,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>29.79900896488251</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3644,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,23 +3739,23 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>4.3203725898889</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="6">
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>846.5570557448675</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>603.1082791007675</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X6" t="n">
-        <v>395.2567788952347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4846,10 +4846,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5071,22 +5071,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5129,7 +5129,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
         <v>473.4149733950735</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5238,13 +5238,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C14" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D14" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E14" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F14" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V14" t="n">
-        <v>962.2293816994886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W14" t="n">
-        <v>718.7806050553886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X14" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y14" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5472,16 +5472,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V17" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,13 +5603,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>223.7040404982626</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>223.7040404982626</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5697,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>942.6594228129348</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5834,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>252.1315786412141</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W21" t="n">
-        <v>252.1315786412141</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X21" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5940,22 +5940,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>109.3894334091926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>109.3894334091926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>109.3894334091926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>109.3894334091926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>109.3894334091926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>109.3894334091926</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6080,13 +6080,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>266.0282188019862</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C26" t="n">
-        <v>266.0282188019862</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D26" t="n">
-        <v>266.0282188019862</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E26" t="n">
-        <v>266.0282188019862</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F26" t="n">
-        <v>22.57944215788615</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G26" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>752.9257720901863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>752.9257720901863</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
-        <v>752.9257720901863</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W26" t="n">
-        <v>752.9257720901863</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X26" t="n">
-        <v>752.9257720901863</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y26" t="n">
-        <v>509.4769954460863</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>790.6398109613051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>582.7883107557723</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
         <v>262.7299197543128</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>526.7184526376595</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="C30" t="n">
-        <v>526.7184526376595</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D30" t="n">
-        <v>463.7839815061678</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E30" t="n">
-        <v>304.5465265007123</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>526.7184526376595</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W30" t="n">
-        <v>526.7184526376595</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X30" t="n">
-        <v>526.7184526376595</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="Y30" t="n">
-        <v>526.7184526376595</v>
+        <v>474.7416984028202</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>325.7766548071333</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="D32" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="E32" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F32" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="G32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>812.6742080953335</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X32" t="n">
-        <v>812.6742080953335</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y32" t="n">
-        <v>569.2254314512334</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>787.171420448546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6782,10 +6782,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M33" t="n">
         <v>304.2053859195205</v>
@@ -6806,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>787.171420448546</v>
+        <v>698.7138367828777</v>
       </c>
       <c r="T33" t="n">
-        <v>787.171420448546</v>
+        <v>698.7138367828777</v>
       </c>
       <c r="U33" t="n">
-        <v>787.171420448546</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V33" t="n">
-        <v>787.171420448546</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W33" t="n">
-        <v>787.171420448546</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X33" t="n">
-        <v>787.171420448546</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.171420448546</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>536.8878951967741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,43 +7025,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>739.074489838008</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>536.8878951967741</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>536.8878951967741</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>536.8878951967741</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>536.8878951967741</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>536.8878951967741</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>536.8878951967741</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
         <v>19.28114311021272</v>
@@ -7113,34 +7113,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7283,19 +7283,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>933.9571464551993</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
         <v>19.28114311021272</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>340.2687303644548</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7496,19 +7496,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7523,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>716.2443661494767</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>508.4840673845228</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7602,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7678,22 +7678,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y44" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7833,7 +7833,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
         <v>19.28114311021272</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9260,7 +9260,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,10 +9491,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9728,16 +9728,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>369.031319612638</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11144,7 +11144,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11153,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,13 +11387,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>244.7225752110828</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22555,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22606,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22628,25 +22628,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22685,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>50.84673021034803</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,28 +22786,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>120.394135900372</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23038,13 +23038,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23275,13 +23275,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23399,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>17.46428042948642</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>312.9645104224461</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,28 +23539,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>325.9427623970988</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>4.091421688202701</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>325.8706680867785</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23828,13 +23828,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.7981193194529</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="19">
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24016,28 +24016,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>108.7197514624917</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24214,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>248.0803368506399</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24302,7 +24302,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>23.02823684050635</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24341,7 +24341,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24414,13 +24414,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H26" t="n">
-        <v>336.2094860585705</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24533,19 +24533,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>132.6019977789644</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24727,28 +24727,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24764,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>85.13993914446192</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24818,13 +24818,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>193.3564166180423</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24855,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>302.8566240687152</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24964,7 +24964,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24976,16 +24976,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,19 +24998,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>96.72412754501165</v>
+        <v>9.151119716000068</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25131,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,13 +25207,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>166.0248129136286</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25247,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>49.10816624057911</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25332,13 +25332,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25353,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25411,10 +25411,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25523,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>170.3657197299391</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25718,7 +25718,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>201.4526126135886</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>146.4192052328705</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26073,10 +26073,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="C2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="C2" t="n">
-        <v>99696.40351879939</v>
       </c>
       <c r="D2" t="n">
         <v>99696.40351879939</v>
@@ -26325,37 +26325,37 @@
         <v>99696.40351879937</v>
       </c>
       <c r="F2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="G2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="H2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="I2" t="n">
         <v>99696.40351879939</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
         <v>99696.40351879934</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
     </row>
     <row r="3">
@@ -26429,13 +26429,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
         <v>8547.111069342402</v>
@@ -26450,7 +26450,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="N4" t="n">
         <v>8547.111069342402</v>
@@ -26459,7 +26459,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.40784585243</v>
+        <v>-50119.41846589288</v>
       </c>
       <c r="C6" t="n">
-        <v>42868.02368569532</v>
+        <v>30650.01306565484</v>
       </c>
       <c r="D6" t="n">
-        <v>42868.02368569532</v>
+        <v>30650.01306565486</v>
       </c>
       <c r="E6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="F6" t="n">
-        <v>76495.62368569533</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="G6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565487</v>
       </c>
       <c r="H6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565488</v>
       </c>
       <c r="I6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="J6" t="n">
-        <v>13435.68108658904</v>
+        <v>1217.670466548574</v>
       </c>
       <c r="K6" t="n">
-        <v>76495.62368569527</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="L6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="M6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="N6" t="n">
-        <v>76495.62368569533</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="O6" t="n">
-        <v>76495.62368569535</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="P6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565483</v>
       </c>
     </row>
   </sheetData>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>99.81127712997396</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35980,7 +35980,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,10 +36211,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36922,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37873,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>240.0046611659691</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38107,13 +38107,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>113.3808631277494</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337290.5109663219</v>
+        <v>429292.3595494201</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514372</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955722</v>
+        <v>5668630.558955723</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>241.0142888776591</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>201.2188744252015</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>154.8359655669563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>135.4141600157168</v>
+        <v>75.05637066477243</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>212.285385643442</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1274,13 +1274,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>176.2637201985544</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>188.2184153478179</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="13">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>102.3382270926889</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -1751,10 +1751,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>201.6815635152748</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>62.43486741948623</v>
       </c>
     </row>
     <row r="16">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>19.7279353865638</v>
       </c>
     </row>
     <row r="18">
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1988,10 +1988,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2180,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>172.456371936635</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>63.88882306452232</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2241,58 +2241,58 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2332,16 +2332,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>11.86372679529251</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.609021946079816</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>12.41656858543521</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2967,43 +2967,43 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3043,16 +3043,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>112.9995969463466</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>162.5320513878378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3167,13 +3167,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>29.14270706479791</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.96396779500064</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>29.1427070647978</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>11.19305615617957</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3602,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>45.27093583804409</v>
       </c>
       <c r="T39" t="n">
-        <v>65.1306020652372</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3644,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3757,7 +3757,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3784,25 +3784,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>40.47627913313517</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.05241763862477</v>
+        <v>155.5825568932142</v>
       </c>
     </row>
     <row r="43">
@@ -3912,43 +3912,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>208.2638363878124</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
         <v>506.1786963984129</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
         <v>20.03527576299844</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>486.2188932059065</v>
       </c>
       <c r="V3" t="n">
-        <v>627.7355178317791</v>
+        <v>486.2188932059065</v>
       </c>
       <c r="W3" t="n">
-        <v>384.2867411876791</v>
+        <v>486.2188932059065</v>
       </c>
       <c r="X3" t="n">
-        <v>176.4352409821462</v>
+        <v>486.2188932059065</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>486.2188932059065</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>499.3853800778592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>255.9366034337592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>742.8341567219593</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U5" t="n">
-        <v>742.8341567219593</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V5" t="n">
-        <v>742.8341567219593</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W5" t="n">
-        <v>742.8341567219593</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X5" t="n">
-        <v>742.8341567219593</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y5" t="n">
-        <v>499.3853800778592</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>156.0631229240681</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>644.7938630435337</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>437.0335642785798</v>
       </c>
     </row>
     <row r="7">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E8" t="n">
         <v>506.1786963984129</v>
@@ -4831,25 +4831,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X8" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="9">
@@ -4889,43 +4889,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
         <v>19.28114311021272</v>
@@ -4989,16 +4989,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5129,43 +5129,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>660.701031422288</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>417.2522547781879</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>209.4007545726551</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5223,19 +5223,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C14" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D14" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E14" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F14" t="n">
         <v>122.6530896684844</v>
@@ -5317,13 +5317,13 @@
         <v>366.1018663125844</v>
       </c>
       <c r="W14" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X14" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>634.6640077999109</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V15" t="n">
-        <v>634.6640077999109</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W15" t="n">
-        <v>391.2152311558108</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4964801302808</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="Y15" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W17" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
         <v>725.4530095217538</v>
@@ -5624,19 +5624,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W18" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X18" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
         <v>19.28114311021272</v>
@@ -5697,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5788,7 +5788,7 @@
         <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>812.6742080953335</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W20" t="n">
         <v>569.2254314512334</v>
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>327.2640844659515</v>
+        <v>561.6351817554748</v>
       </c>
       <c r="W21" t="n">
-        <v>83.81530782185143</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5940,22 +5940,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="24">
@@ -6095,22 +6095,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6171,7 +6171,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.7186438601369</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C26" t="n">
-        <v>241.7186438601369</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D26" t="n">
-        <v>241.7186438601369</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E26" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>485.167420504237</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V26" t="n">
-        <v>485.167420504237</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W26" t="n">
-        <v>241.7186438601369</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X26" t="n">
-        <v>241.7186438601369</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.7186438601369</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K28" t="n">
         <v>19.28114311021272</v>
@@ -6402,34 +6402,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>262.7299197543128</v>
@@ -6490,25 +6490,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>474.7416984028202</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C30" t="n">
-        <v>474.7416984028202</v>
+        <v>622.424473941237</v>
       </c>
       <c r="D30" t="n">
-        <v>325.807288741569</v>
+        <v>473.4900642799857</v>
       </c>
       <c r="E30" t="n">
-        <v>166.5698337361135</v>
+        <v>314.2526092745302</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>167.7180513014152</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>28.98722588403072</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>28.98722588403072</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,13 +6551,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X30" t="n">
-        <v>474.7416984028202</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y30" t="n">
-        <v>474.7416984028202</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6651,22 +6651,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>698.7138367828777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>698.7138367828777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>470.4902185192667</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>470.4902185192667</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>227.0414418751666</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
         <v>19.28114311021272</v>
@@ -6897,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T35" t="n">
-        <v>728.6161971483371</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U35" t="n">
-        <v>485.167420504237</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V35" t="n">
-        <v>485.167420504237</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W35" t="n">
-        <v>485.167420504237</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X35" t="n">
-        <v>241.7186438601369</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>706.3964594037951</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7122,10 +7122,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>517.4848137278872</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V38" t="n">
-        <v>517.4848137278872</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W38" t="n">
-        <v>274.0360370837871</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1594080452955</v>
       </c>
       <c r="T39" t="n">
-        <v>898.2686685760532</v>
+        <v>817.1594080452955</v>
       </c>
       <c r="U39" t="n">
-        <v>670.0450503124422</v>
+        <v>588.9357897816847</v>
       </c>
       <c r="V39" t="n">
-        <v>434.8929420806995</v>
+        <v>353.783681549942</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="40">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7999090013961</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D41" t="n">
-        <v>274.7999090013961</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E41" t="n">
-        <v>274.7999090013961</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H41" t="n">
         <v>31.35113235729608</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>761.6974622895962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U41" t="n">
-        <v>761.6974622895962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V41" t="n">
-        <v>518.2486856454962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W41" t="n">
-        <v>274.7999090013961</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X41" t="n">
-        <v>274.7999090013961</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.7999090013961</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7496,13 +7496,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O42" t="n">
         <v>712.019119383956</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7596,25 +7596,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>485.167420504237</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C44" t="n">
-        <v>485.167420504237</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>728.6161971483371</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U44" t="n">
-        <v>728.6161971483371</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V44" t="n">
-        <v>728.6161971483371</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W44" t="n">
-        <v>728.6161971483371</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X44" t="n">
-        <v>728.6161971483371</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y44" t="n">
-        <v>485.167420504237</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7736,13 +7736,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>914.2479596093278</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="46">
@@ -7833,7 +7833,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
         <v>19.28114311021272</v>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9251,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9956,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>369.031319612638</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10199,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10667,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,16 +11144,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>360.302996258564</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22555,10 +22555,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>174.288448637476</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22609,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22634,13 +22634,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>24.72250765577334</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>50.84673021034803</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22767,10 +22767,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>270.4049153562469</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>120.394135900372</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22883,7 +22883,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>70.35882518776063</v>
+        <v>130.716614538705</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
@@ -23071,7 +23071,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>157.445715035027</v>
+        <v>366.4657846212724</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>75.43126296236522</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23275,7 +23275,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,13 +23311,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.46428042948642</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="13">
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>312.9645104224461</v>
@@ -23557,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>4.091421688202701</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>143.2478283578181</v>
       </c>
     </row>
     <row r="16">
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>366.5100032694898</v>
       </c>
     </row>
     <row r="18">
@@ -23864,7 +23864,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.3175739611883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>277.0585344134748</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24028,10 +24028,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24068,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>60.34421521279029</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>141.8841621389552</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24220,16 +24220,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>327.6110753204746</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24262,7 +24262,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>248.0803368506399</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24335,10 +24335,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24411,10 +24411,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>279.5921429795728</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>195.0896117727101</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24572,16 +24572,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>55.3580723357268</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24624,10 +24624,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24642,10 +24642,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>286.8247010151207</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24773,16 +24773,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>79.78761090533526</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24824,7 +24824,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>193.3564166180423</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24855,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24891,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24931,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>110.0962526177847</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>9.151119716000068</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25055,13 +25055,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>176.6302781386796</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25174,7 +25174,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.0248129136286</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>142.54046403904</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25298,10 +25298,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25362,13 +25362,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>344.9458054486639</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25411,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25441,7 +25441,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>358.5380445222895</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25490,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>126.4122352657937</v>
       </c>
       <c r="T39" t="n">
-        <v>135.0341266295844</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25645,7 +25645,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>239.095165163146</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,25 +25672,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>182.6195704309962</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>176.6302781386796</v>
+        <v>50.1001388840902</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>146.4192052328705</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>412.0374214579384</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26073,10 +26073,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125027</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>99696.40351879939</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="F2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="G2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
         <v>99696.40351879937</v>
@@ -26429,7 +26429,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26447,10 +26447,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
+        <v>8547.111069342403</v>
+      </c>
+      <c r="M4" t="n">
         <v>8547.111069342402</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8547.111069342403</v>
       </c>
       <c r="N4" t="n">
         <v>8547.111069342402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50119.41846589288</v>
+        <v>-39123.20890785646</v>
       </c>
       <c r="C6" t="n">
-        <v>30650.01306565484</v>
+        <v>41646.22262369125</v>
       </c>
       <c r="D6" t="n">
-        <v>30650.01306565486</v>
+        <v>41646.22262369129</v>
       </c>
       <c r="E6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369125</v>
       </c>
       <c r="F6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.82262369129</v>
       </c>
       <c r="G6" t="n">
-        <v>64277.61306565487</v>
+        <v>75273.82262369129</v>
       </c>
       <c r="H6" t="n">
-        <v>64277.61306565488</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="I6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.82262369127</v>
       </c>
       <c r="J6" t="n">
-        <v>1217.670466548574</v>
+        <v>12213.88002458502</v>
       </c>
       <c r="K6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="L6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="M6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="N6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369123</v>
       </c>
       <c r="O6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369127</v>
       </c>
       <c r="P6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369126</v>
       </c>
     </row>
   </sheetData>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N18" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O21" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>226.4350751681936</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36919,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>217.7067518141195</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38104,16 +38104,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N45" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
